--- a/src/test/resources/com/excel/testdatasheet.xlsx
+++ b/src/test/resources/com/excel/testdatasheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\workspace\PageObjectModelFramework\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\workspace\PageObjectModelFramework\src\test\resources\com\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DDEDFD-FE41-4D4C-8EED-0125BBBAA9F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B54BE3-06BB-4E57-A5F6-A2465C3C3D6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="1" xr2:uid="{896CB679-BE82-4FC8-8EDB-A9B4BE5E2C6E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{896CB679-BE82-4FC8-8EDB-A9B4BE5E2C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="testCasesMode" sheetId="3" r:id="rId1"/>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EC5A15-46ED-4019-B808-7AFDDA2E9A66}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4CBD2D-FEC9-40B1-8A07-6D604C5C9F41}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,10 +538,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{3A21478A-4173-453A-9C83-150D81FF21FD}"/>
